--- a/static/data_base.xlsx
+++ b/static/data_base.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBEDD24-FC5A-40C4-AB61-417F6B27E4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FD1111-DC5D-4E59-A842-46335C7A7577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="105" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Country codes" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="573">
   <si>
     <t>ANDORRA</t>
   </si>
@@ -1733,6 +1733,15 @@
   </si>
   <si>
     <t>RQF8_RE</t>
+  </si>
+  <si>
+    <t>Course Level</t>
+  </si>
+  <si>
+    <t>RQF Level 4</t>
+  </si>
+  <si>
+    <t>RQF Level 7</t>
   </si>
 </sst>
 </file>
@@ -2177,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="I219" sqref="I219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4215,6 +4224,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4222,8 +4232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B266"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6369,9 +6379,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C42813-83C0-4184-A8C5-3B5A0ED1D5C6}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -6380,9 +6390,10 @@
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>552</v>
       </c>
@@ -6392,8 +6403,11 @@
       <c r="C1" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>555</v>
       </c>
@@ -6403,8 +6417,11 @@
       <c r="C2" s="12">
         <v>45773</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>556</v>
       </c>
@@ -6414,8 +6431,11 @@
       <c r="C3" s="12">
         <v>46031</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>557</v>
       </c>
@@ -6424,6 +6444,9 @@
       </c>
       <c r="C4" s="12">
         <v>46503</v>
+      </c>
+      <c r="D4" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -6435,14 +6458,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C290FFF-E80F-498E-B1C0-F26085EF6128}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/static/data_base.xlsx
+++ b/static/data_base.xlsx
@@ -3,15 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FD1111-DC5D-4E59-A842-46335C7A7577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEF2172-DB4F-450E-81C1-7A81889B56F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Country codes" sheetId="2" r:id="rId1"/>
     <sheet name="Nationality codes" sheetId="1" r:id="rId2"/>
     <sheet name="Course Info" sheetId="3" r:id="rId3"/>
     <sheet name="Course Level" sheetId="4" r:id="rId4"/>
+    <sheet name="SELT" sheetId="5" r:id="rId5"/>
+    <sheet name="English Test" sheetId="6" r:id="rId6"/>
+    <sheet name="CEFR" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Blah">#REF!</definedName>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="606">
   <si>
     <t>ANDORRA</t>
   </si>
@@ -1742,6 +1745,105 @@
   </si>
   <si>
     <t>RQF Level 7</t>
+  </si>
+  <si>
+    <t>HEI</t>
+  </si>
+  <si>
+    <t>GIFTED</t>
+  </si>
+  <si>
+    <t>T4SWITCH</t>
+  </si>
+  <si>
+    <t>ENG_COUNTRY</t>
+  </si>
+  <si>
+    <t>ENG_DEGREE</t>
+  </si>
+  <si>
+    <t>ENG_VISA</t>
+  </si>
+  <si>
+    <t>USA_HEI</t>
+  </si>
+  <si>
+    <t>HEI has made assessment</t>
+  </si>
+  <si>
+    <t>Gifted student</t>
+  </si>
+  <si>
+    <t>Switch from Student (Child)</t>
+  </si>
+  <si>
+    <t>From English speaking country</t>
+  </si>
+  <si>
+    <t>Holding degree from English speaking country</t>
+  </si>
+  <si>
+    <t>Study abroad programme as part of USA HEI degree</t>
+  </si>
+  <si>
+    <t>Previous successful application</t>
+  </si>
+  <si>
+    <t>IELTS SELT</t>
+  </si>
+  <si>
+    <t>IELTS</t>
+  </si>
+  <si>
+    <t>LanguageCert</t>
+  </si>
+  <si>
+    <t>LANGCRT</t>
+  </si>
+  <si>
+    <t>Pearson</t>
+  </si>
+  <si>
+    <t>PEARSON</t>
+  </si>
+  <si>
+    <t>PSI</t>
+  </si>
+  <si>
+    <t>Trinity College London</t>
+  </si>
+  <si>
+    <t>TCLUK</t>
+  </si>
+  <si>
+    <t>CEFR level A2</t>
+  </si>
+  <si>
+    <t>CEFR level B1</t>
+  </si>
+  <si>
+    <t>CEFR level B2</t>
+  </si>
+  <si>
+    <t>CEFR level C1</t>
+  </si>
+  <si>
+    <t>CEFR level C2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
   </si>
 </sst>
 </file>
@@ -1774,17 +1876,16 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF0B0C0C"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0B0C0C"/>
-      <name val="Arial"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1841,7 +1942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1870,15 +1971,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2186,8 +2293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D253"/>
   <sheetViews>
-    <sheetView topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="I219" sqref="I219"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2198,10 +2305,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>506</v>
       </c>
     </row>
@@ -4232,8 +4339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B266"/>
   <sheetViews>
-    <sheetView topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="B252" sqref="B252"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4245,10 +4352,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="17" t="s">
         <v>506</v>
       </c>
     </row>
@@ -6381,8 +6488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C42813-83C0-4184-A8C5-3B5A0ED1D5C6}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6394,58 +6501,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>554</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="16">
         <v>45539</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="16">
         <v>45773</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="15" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="16">
         <v>45536</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="16">
         <v>46031</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="15" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="16">
         <v>45536</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="16">
         <v>46503</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="15" t="s">
         <v>571</v>
       </c>
     </row>
@@ -6459,18 +6566,85 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>569</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FDAA6A-92A0-4EFF-B2CB-70CC7DB77808}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>558</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -6478,47 +6652,196 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>560</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>565</v>
+      <c r="A2" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>566</v>
+      <c r="A3" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>562</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>567</v>
+      <c r="A4" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>568</v>
+      <c r="A5" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>569</v>
+      <c r="A6" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3786D3-2B0D-47A0-BFFC-7AC241115C94}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EC3277-DCEA-4884-AFF7-60D897A3BC48}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>